--- a/Tables/Formatted/Year Pivot.xlsx
+++ b/Tables/Formatted/Year Pivot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gorbetw\Desktop\GPT Detection\Pivots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gorbetw\Documents\Repos\AI-Detection\Tables\Formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -625,21 +625,6 @@
   <dxfs count="10">
     <dxf>
       <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -723,9 +708,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -739,6 +733,12 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -754,15 +754,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" name="Years" dataDxfId="0"/>
-    <tableColumn id="2" name="Less than 10% chance of being real" dataDxfId="1"/>
-    <tableColumn id="3" name="Less than 20% chance of being real" dataDxfId="6"/>
-    <tableColumn id="4" name="Less than 30% chance of being real" dataDxfId="5"/>
-    <tableColumn id="5" name="Less than 40% chance of being real" dataDxfId="4"/>
-    <tableColumn id="6" name="Less than 50% chance of being real" dataDxfId="3"/>
-    <tableColumn id="7" name="Over 50% chance of being real" dataDxfId="2"/>
+    <tableColumn id="1" name="Years" dataDxfId="6"/>
+    <tableColumn id="2" name="Less than 10% chance of being real" dataDxfId="5"/>
+    <tableColumn id="3" name="Less than 20% chance of being real" dataDxfId="4"/>
+    <tableColumn id="4" name="Less than 30% chance of being real" dataDxfId="3"/>
+    <tableColumn id="5" name="Less than 40% chance of being real" dataDxfId="2"/>
+    <tableColumn id="6" name="Less than 50% chance of being real" dataDxfId="1"/>
+    <tableColumn id="7" name="Over 50% chance of being real" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1034,7 +1034,7 @@
   <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,19 +1076,19 @@
         <v>64</v>
       </c>
       <c r="D3" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="6">
         <v>11</v>
       </c>
       <c r="G3" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="6">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1096,22 +1096,22 @@
         <v>7</v>
       </c>
       <c r="C4" s="6">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D4" s="6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="6">
         <v>10</v>
       </c>
       <c r="H4" s="6">
-        <v>1453</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1119,22 +1119,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="6">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D5" s="6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6">
         <v>13</v>
       </c>
-      <c r="F5" s="6">
-        <v>9</v>
-      </c>
       <c r="G5" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" s="6">
-        <v>1464</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1142,22 +1142,22 @@
         <v>9</v>
       </c>
       <c r="C6" s="6">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" s="6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="6">
-        <v>1473</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1165,22 +1165,22 @@
         <v>10</v>
       </c>
       <c r="C7" s="6">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D7" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" s="6">
-        <v>1478</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="6">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6">
         <v>14</v>
@@ -1197,13 +1197,13 @@
         <v>6</v>
       </c>
       <c r="F8" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" s="6">
-        <v>1502</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1214,19 +1214,19 @@
         <v>36</v>
       </c>
       <c r="D9" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="6">
         <v>7</v>
       </c>
       <c r="H9" s="6">
-        <v>1543</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,22 +1234,22 @@
         <v>13</v>
       </c>
       <c r="C10" s="6">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="6">
         <v>3</v>
       </c>
       <c r="F10" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10" s="6">
-        <v>1555</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1257,13 +1257,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
       </c>
       <c r="E11" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="6">
         <v>2</v>
@@ -1272,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="6">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Formatted/Year Pivot.xlsx
+++ b/Tables/Formatted/Year Pivot.xlsx
@@ -21,24 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Less than 10% chance of being real</t>
-  </si>
-  <si>
-    <t>Less than 20% chance of being real</t>
-  </si>
-  <si>
-    <t>Less than 30% chance of being real</t>
-  </si>
-  <si>
-    <t>Less than 40% chance of being real</t>
-  </si>
-  <si>
-    <t>Less than 50% chance of being real</t>
-  </si>
-  <si>
-    <t>Over 50% chance of being real</t>
-  </si>
-  <si>
     <t>1980-1984</t>
   </si>
   <si>
@@ -67,6 +49,24 @@
   </si>
   <si>
     <t>Years</t>
+  </si>
+  <si>
+    <t>Greater than 90% chance of being AI generated</t>
+  </si>
+  <si>
+    <t>Greater than 80% chance of being AI generated</t>
+  </si>
+  <si>
+    <t>Greater than 70% chance of being AI generated</t>
+  </si>
+  <si>
+    <t>Greater than 60% chance of being AI generated</t>
+  </si>
+  <si>
+    <t>Greater than 50% chance of being AI generated</t>
+  </si>
+  <si>
+    <t>Less than 50% chance of being AI generated</t>
   </si>
 </sst>
 </file>
@@ -757,12 +757,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" name="Years" dataDxfId="6"/>
-    <tableColumn id="2" name="Less than 10% chance of being real" dataDxfId="5"/>
-    <tableColumn id="3" name="Less than 20% chance of being real" dataDxfId="4"/>
-    <tableColumn id="4" name="Less than 30% chance of being real" dataDxfId="3"/>
-    <tableColumn id="5" name="Less than 40% chance of being real" dataDxfId="2"/>
-    <tableColumn id="6" name="Less than 50% chance of being real" dataDxfId="1"/>
-    <tableColumn id="7" name="Over 50% chance of being real" dataDxfId="0"/>
+    <tableColumn id="2" name="Greater than 90% chance of being AI generated" dataDxfId="5"/>
+    <tableColumn id="3" name="Greater than 80% chance of being AI generated" dataDxfId="4"/>
+    <tableColumn id="4" name="Greater than 70% chance of being AI generated" dataDxfId="3"/>
+    <tableColumn id="5" name="Greater than 60% chance of being AI generated" dataDxfId="2"/>
+    <tableColumn id="6" name="Greater than 50% chance of being AI generated" dataDxfId="1"/>
+    <tableColumn id="7" name="Less than 50% chance of being AI generated" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1034,7 +1034,7 @@
   <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,32 +1045,32 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" s="6">
         <v>64</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6">
         <v>79</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6">
         <v>80</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6">
         <v>74</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6">
         <v>82</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6">
         <v>58</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6">
         <v>36</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6">
         <v>22</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C11" s="6">
         <v>12</v>

--- a/Tables/Formatted/Year Pivot.xlsx
+++ b/Tables/Formatted/Year Pivot.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="year-pivot" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -216,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,8 +396,50 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3D0EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC693"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FE59F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0AAAA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8C7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -512,6 +554,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -557,7 +643,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -565,16 +651,49 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -635,7 +754,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -649,7 +784,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD8C7E7"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -663,7 +814,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0AAAA"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -677,7 +844,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9FE59F"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -691,7 +874,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC693"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -705,7 +904,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA3D0EF"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -716,19 +933,34 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.749992370372631"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thick">
           <color auto="1"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thick">
           <color auto="1"/>
         </bottom>
@@ -738,10 +970,38 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.749992370372631"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD9D9D9"/>
+      <color rgb="FFD8C7E7"/>
+      <color rgb="FFF0AAAA"/>
+      <color rgb="FF9FE59F"/>
+      <color rgb="FFFFC693"/>
+      <color rgb="FFA3D0EF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -764,7 +1024,7 @@
     <tableColumn id="6" name="Greater than 50% chance of being AI generated" dataDxfId="1"/>
     <tableColumn id="7" name="Less than 50% chance of being AI generated" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1041,12 +1301,12 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="3" max="8" width="13.7109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1069,216 +1329,217 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6">
         <v>64</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>12</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>15</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <v>11</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="10">
         <v>7</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="16">
         <v>1491</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6">
         <v>79</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>18</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>9</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
         <v>17</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="10">
         <v>10</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="16">
         <v>1467</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="6">
         <v>80</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>18</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>11</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>13</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="10">
         <v>11</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="16">
         <v>1467</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6">
         <v>74</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>23</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>18</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="9">
         <v>10</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="10">
         <v>14</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="16">
         <v>1461</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6">
         <v>82</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>17</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>11</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="9">
         <v>6</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="10">
         <v>10</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="16">
         <v>1474</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6">
         <v>58</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>14</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>6</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="9">
         <v>14</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="10">
         <v>12</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="16">
         <v>1496</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="6">
         <v>36</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>11</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="9">
         <v>5</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="10">
         <v>7</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="16">
         <v>1540</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="6">
         <v>22</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>4</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>3</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="9">
         <v>6</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="10">
         <v>5</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="16">
         <v>1560</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="11">
         <v>12</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="12">
         <v>1</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="13">
         <v>3</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="14">
         <v>2</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="15">
         <v>4</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="17">
         <v>1578</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Tables/Formatted/Year Pivot.xlsx
+++ b/Tables/Formatted/Year Pivot.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gorbetw\Documents\Repos\AI-Detection\Tables\Formatted\"/>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="year-pivot" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -66,13 +66,13 @@
     <t>Greater than 50% chance of being AI generated</t>
   </si>
   <si>
-    <t>Less than 50% chance of being AI generated</t>
+    <t>Greater than 50% chance of being real</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,18 +428,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8C7E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C7C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBCDE9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCAB3DF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3EFC3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDAB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7E2F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -555,15 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -598,8 +625,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -642,8 +739,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -654,50 +752,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="40" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="41" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="43" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="44" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="45" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="39" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="45" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="44" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="43" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="40" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="41" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="39" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -737,269 +880,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFD8C7E7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF0AAAA"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9FE59F"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC693"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA3D0EF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.749992370372631"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.749992370372631"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC7E2F5"/>
+      <color rgb="FFFFDAB9"/>
+      <color rgb="FFC3EFC3"/>
+      <color rgb="FFCAB3DF"/>
+      <color rgb="FFDBCDE9"/>
+      <color rgb="FFF5C7C7"/>
+      <color rgb="FFEAE2F2"/>
       <color rgb="FFD9D9D9"/>
       <color rgb="FFD8C7E7"/>
       <color rgb="FFF0AAAA"/>
-      <color rgb="FF9FE59F"/>
-      <color rgb="FFFFC693"/>
-      <color rgb="FFA3D0EF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1011,21 +910,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <tableColumns count="7">
-    <tableColumn id="1" name="Years" dataDxfId="6"/>
-    <tableColumn id="2" name="Greater than 90% chance of being AI generated" dataDxfId="5"/>
-    <tableColumn id="3" name="Greater than 80% chance of being AI generated" dataDxfId="4"/>
-    <tableColumn id="4" name="Greater than 70% chance of being AI generated" dataDxfId="3"/>
-    <tableColumn id="5" name="Greater than 60% chance of being AI generated" dataDxfId="2"/>
-    <tableColumn id="6" name="Greater than 50% chance of being AI generated" dataDxfId="1"/>
-    <tableColumn id="7" name="Less than 50% chance of being AI generated" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1291,255 +1175,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:N12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="8" width="13.7109375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="14" width="13.7109375" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31" t="s">
         <v>15</v>
       </c>
+      <c r="N2" s="32"/>
     </row>
-    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>64</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="E3" s="5">
         <v>12</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="13">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G3" s="6">
         <v>15</v>
       </c>
-      <c r="F3" s="9">
+      <c r="H3" s="12">
+        <v>9.3749999999999997E-3</v>
+      </c>
+      <c r="I3" s="7">
         <v>11</v>
       </c>
-      <c r="G3" s="10">
+      <c r="J3" s="9">
+        <v>6.875E-3</v>
+      </c>
+      <c r="K3" s="11">
         <v>7</v>
       </c>
-      <c r="H3" s="16">
+      <c r="L3" s="10">
+        <v>4.3750000000000004E-3</v>
+      </c>
+      <c r="M3" s="8">
         <v>1491</v>
       </c>
+      <c r="N3" s="16">
+        <v>0.93187500000000001</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>79</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="14">
+        <v>4.9375000000000002E-2</v>
+      </c>
+      <c r="E4" s="5">
         <v>18</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="13">
+        <v>1.125E-2</v>
+      </c>
+      <c r="G4" s="6">
         <v>9</v>
       </c>
-      <c r="F4" s="9">
+      <c r="H4" s="12">
+        <v>5.6249999999999998E-3</v>
+      </c>
+      <c r="I4" s="7">
         <v>17</v>
       </c>
-      <c r="G4" s="10">
+      <c r="J4" s="9">
+        <v>1.0625000000000001E-2</v>
+      </c>
+      <c r="K4" s="11">
         <v>10</v>
       </c>
-      <c r="H4" s="16">
+      <c r="L4" s="10">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="M4" s="8">
         <v>1467</v>
       </c>
+      <c r="N4" s="16">
+        <v>0.916875</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>80</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="5">
         <v>18</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="13">
+        <v>1.125E-2</v>
+      </c>
+      <c r="G5" s="6">
         <v>11</v>
       </c>
-      <c r="F5" s="9">
+      <c r="H5" s="12">
+        <v>6.875E-3</v>
+      </c>
+      <c r="I5" s="7">
         <v>13</v>
       </c>
-      <c r="G5" s="10">
+      <c r="J5" s="9">
+        <v>8.1250000000000003E-3</v>
+      </c>
+      <c r="K5" s="11">
         <v>11</v>
       </c>
-      <c r="H5" s="16">
+      <c r="L5" s="10">
+        <v>6.875E-3</v>
+      </c>
+      <c r="M5" s="8">
         <v>1467</v>
       </c>
+      <c r="N5" s="16">
+        <v>0.916875</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>74</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="14">
+        <v>4.6249999999999999E-2</v>
+      </c>
+      <c r="E6" s="5">
         <v>23</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="13">
+        <v>1.4375000000000001E-2</v>
+      </c>
+      <c r="G6" s="6">
         <v>18</v>
       </c>
-      <c r="F6" s="9">
+      <c r="H6" s="12">
+        <v>1.125E-2</v>
+      </c>
+      <c r="I6" s="7">
         <v>10</v>
       </c>
-      <c r="G6" s="10">
+      <c r="J6" s="9">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="K6" s="11">
         <v>14</v>
       </c>
-      <c r="H6" s="16">
+      <c r="L6" s="10">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="M6" s="8">
         <v>1461</v>
       </c>
+      <c r="N6" s="16">
+        <v>0.91312499999999996</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>82</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="14">
+        <v>5.1249999999999997E-2</v>
+      </c>
+      <c r="E7" s="5">
         <v>17</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="13">
+        <v>1.0625000000000001E-2</v>
+      </c>
+      <c r="G7" s="6">
         <v>11</v>
       </c>
-      <c r="F7" s="9">
+      <c r="H7" s="12">
+        <v>6.875E-3</v>
+      </c>
+      <c r="I7" s="7">
         <v>6</v>
       </c>
-      <c r="G7" s="10">
+      <c r="J7" s="9">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="K7" s="11">
         <v>10</v>
       </c>
-      <c r="H7" s="16">
+      <c r="L7" s="10">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="M7" s="8">
         <v>1474</v>
       </c>
+      <c r="N7" s="16">
+        <v>0.92125000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>58</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="14">
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="E8" s="5">
         <v>14</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="13">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="G8" s="6">
         <v>6</v>
       </c>
-      <c r="F8" s="9">
+      <c r="H8" s="12">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="I8" s="7">
         <v>14</v>
       </c>
-      <c r="G8" s="10">
+      <c r="J8" s="9">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="K8" s="11">
         <v>12</v>
       </c>
-      <c r="H8" s="16">
+      <c r="L8" s="10">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M8" s="8">
         <v>1496</v>
       </c>
+      <c r="N8" s="16">
+        <v>0.93500000000000005</v>
+      </c>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>36</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="14">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="E9" s="5">
         <v>11</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="13">
+        <v>6.875E-3</v>
+      </c>
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="9">
+      <c r="H9" s="12">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="I9" s="7">
         <v>5</v>
       </c>
-      <c r="G9" s="10">
+      <c r="J9" s="9">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="K9" s="11">
         <v>7</v>
       </c>
-      <c r="H9" s="16">
+      <c r="L9" s="10">
+        <v>4.3750000000000004E-3</v>
+      </c>
+      <c r="M9" s="8">
         <v>1540</v>
       </c>
+      <c r="N9" s="16">
+        <v>0.96250000000000002</v>
+      </c>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>22</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="14">
+        <v>1.375E-2</v>
+      </c>
+      <c r="E10" s="5">
         <v>4</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="13">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G10" s="6">
         <v>3</v>
       </c>
-      <c r="F10" s="9">
+      <c r="H10" s="12">
+        <v>1.8749999999999999E-3</v>
+      </c>
+      <c r="I10" s="7">
         <v>6</v>
       </c>
-      <c r="G10" s="10">
+      <c r="J10" s="9">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="K10" s="11">
         <v>5</v>
       </c>
-      <c r="H10" s="16">
+      <c r="L10" s="10">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="M10" s="8">
         <v>1560</v>
       </c>
+      <c r="N10" s="16">
+        <v>0.97499999999999998</v>
+      </c>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="19">
         <v>12</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="20">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E11" s="21">
         <v>1</v>
       </c>
-      <c r="E11" s="13">
+      <c r="F11" s="22">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="G11" s="23">
         <v>3</v>
       </c>
-      <c r="F11" s="14">
+      <c r="H11" s="24">
+        <v>1.8749999999999999E-3</v>
+      </c>
+      <c r="I11" s="25">
         <v>2</v>
       </c>
-      <c r="G11" s="15">
+      <c r="J11" s="26">
+        <v>1.25E-3</v>
+      </c>
+      <c r="K11" s="27">
         <v>4</v>
       </c>
-      <c r="H11" s="17">
+      <c r="L11" s="28">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M11" s="29">
         <v>1578</v>
       </c>
+      <c r="N11" s="30">
+        <v>0.98624999999999996</v>
+      </c>
     </row>
+    <row r="12" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Tables/Formatted/Year Pivot.xlsx
+++ b/Tables/Formatted/Year Pivot.xlsx
@@ -48,32 +48,32 @@
     <t>2020-2023</t>
   </si>
   <si>
-    <t>Years</t>
+    <t>AI Generated Possibility</t>
   </si>
   <si>
-    <t>Greater than 90% chance of being AI generated</t>
+    <t>50 - 60%</t>
   </si>
   <si>
-    <t>Greater than 80% chance of being AI generated</t>
+    <t>&lt; 50%</t>
   </si>
   <si>
-    <t>Greater than 70% chance of being AI generated</t>
+    <t>60 - 70%</t>
   </si>
   <si>
-    <t>Greater than 60% chance of being AI generated</t>
+    <t>70 - 80%</t>
   </si>
   <si>
-    <t>Greater than 50% chance of being AI generated</t>
+    <t>80 - 90%</t>
   </si>
   <si>
-    <t>Greater than 50% chance of being real</t>
+    <t>&gt; 90%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +215,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="46">
     <fill>
@@ -475,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -606,12 +622,8 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -620,9 +632,18 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </bottom>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -631,67 +652,45 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,7 +740,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -752,50 +751,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="40" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="41" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="43" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="44" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="45" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="39" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="39" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="41" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="40" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="43" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="44" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -803,40 +787,19 @@
     <xf numFmtId="10" fontId="18" fillId="45" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="44" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="43" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="40" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="41" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="39" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1175,427 +1138,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N12"/>
+  <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
     <col min="3" max="14" width="13.7109375" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1491</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1467</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1467</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1461</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1474</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1496</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1540</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1560</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="19"/>
+      <c r="C4" s="5">
+        <v>0.93187500000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.916875</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.916875</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.91312499999999996</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.92125000000000001</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.98624999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31" t="s">
+      <c r="C5" s="6">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
         <v>11</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31" t="s">
+      <c r="F5" s="6">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6">
         <v>12</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
+      <c r="I5" s="6">
+        <v>7</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5</v>
+      </c>
+      <c r="K5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="19"/>
+      <c r="C6" s="7">
+        <v>4.3750000000000004E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>6.875E-3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4.3750000000000004E-3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8">
         <v>13</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31" t="s">
+      <c r="F7" s="8">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6</v>
+      </c>
+      <c r="H7" s="8">
         <v>14</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31" t="s">
+      <c r="I7" s="8">
+        <v>5</v>
+      </c>
+      <c r="J7" s="8">
+        <v>6</v>
+      </c>
+      <c r="K7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+      <c r="C8" s="9">
+        <v>6.875E-3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.0625000000000001E-2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>8.1250000000000003E-3</v>
+      </c>
+      <c r="F8" s="9">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="I8" s="9">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="J8" s="9">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10">
         <v>15</v>
       </c>
-      <c r="N2" s="32"/>
+      <c r="D9" s="10">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10">
+        <v>11</v>
+      </c>
+      <c r="F9" s="10">
+        <v>18</v>
+      </c>
+      <c r="G9" s="10">
+        <v>11</v>
+      </c>
+      <c r="H9" s="10">
+        <v>6</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10">
+        <v>3</v>
+      </c>
+      <c r="K9" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
+    <row r="10" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="11">
+        <v>9.3749999999999997E-3</v>
+      </c>
+      <c r="D10" s="11">
+        <v>5.6249999999999998E-3</v>
+      </c>
+      <c r="E10" s="11">
+        <v>6.875E-3</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1.125E-2</v>
+      </c>
+      <c r="G10" s="11">
+        <v>6.875E-3</v>
+      </c>
+      <c r="H10" s="11">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="I10" s="11">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1.8749999999999999E-3</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1.8749999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="12">
+        <v>12</v>
+      </c>
+      <c r="D11" s="12">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12">
+        <v>18</v>
+      </c>
+      <c r="F11" s="12">
+        <v>23</v>
+      </c>
+      <c r="G11" s="12">
+        <v>17</v>
+      </c>
+      <c r="H11" s="12">
+        <v>14</v>
+      </c>
+      <c r="I11" s="12">
+        <v>11</v>
+      </c>
+      <c r="J11" s="12">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="13">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1.125E-2</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1.125E-2</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1.4375000000000001E-2</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1.0625000000000001E-2</v>
+      </c>
+      <c r="H12" s="13">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="I12" s="13">
+        <v>6.875E-3</v>
+      </c>
+      <c r="J12" s="13">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K12" s="13">
+        <v>6.2500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="14">
         <v>64</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D13" s="14">
+        <v>79</v>
+      </c>
+      <c r="E13" s="14">
+        <v>80</v>
+      </c>
+      <c r="F13" s="14">
+        <v>74</v>
+      </c>
+      <c r="G13" s="14">
+        <v>82</v>
+      </c>
+      <c r="H13" s="14">
+        <v>58</v>
+      </c>
+      <c r="I13" s="14">
+        <v>36</v>
+      </c>
+      <c r="J13" s="14">
+        <v>22</v>
+      </c>
+      <c r="K13" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="15">
         <v>0.04</v>
       </c>
-      <c r="E3" s="5">
-        <v>12</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="D14" s="15">
+        <v>4.9375000000000002E-2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="15">
+        <v>4.6249999999999999E-2</v>
+      </c>
+      <c r="G14" s="15">
+        <v>5.1249999999999997E-2</v>
+      </c>
+      <c r="H14" s="15">
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="I14" s="15">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1.375E-2</v>
+      </c>
+      <c r="K14" s="15">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G3" s="6">
-        <v>15</v>
-      </c>
-      <c r="H3" s="12">
-        <v>9.3749999999999997E-3</v>
-      </c>
-      <c r="I3" s="7">
-        <v>11</v>
-      </c>
-      <c r="J3" s="9">
-        <v>6.875E-3</v>
-      </c>
-      <c r="K3" s="11">
-        <v>7</v>
-      </c>
-      <c r="L3" s="10">
-        <v>4.3750000000000004E-3</v>
-      </c>
-      <c r="M3" s="8">
-        <v>1491</v>
-      </c>
-      <c r="N3" s="16">
-        <v>0.93187500000000001</v>
-      </c>
     </row>
-    <row r="4" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>79</v>
-      </c>
-      <c r="D4" s="14">
-        <v>4.9375000000000002E-2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>18</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1.125E-2</v>
-      </c>
-      <c r="G4" s="6">
-        <v>9</v>
-      </c>
-      <c r="H4" s="12">
-        <v>5.6249999999999998E-3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>17</v>
-      </c>
-      <c r="J4" s="9">
-        <v>1.0625000000000001E-2</v>
-      </c>
-      <c r="K4" s="11">
-        <v>10</v>
-      </c>
-      <c r="L4" s="10">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1467</v>
-      </c>
-      <c r="N4" s="16">
-        <v>0.916875</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>80</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="5">
-        <v>18</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1.125E-2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12">
-        <v>6.875E-3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13</v>
-      </c>
-      <c r="J5" s="9">
-        <v>8.1250000000000003E-3</v>
-      </c>
-      <c r="K5" s="11">
-        <v>11</v>
-      </c>
-      <c r="L5" s="10">
-        <v>6.875E-3</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1467</v>
-      </c>
-      <c r="N5" s="16">
-        <v>0.916875</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>74</v>
-      </c>
-      <c r="D6" s="14">
-        <v>4.6249999999999999E-2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>23</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1.4375000000000001E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>18</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1.125E-2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>10</v>
-      </c>
-      <c r="J6" s="9">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="K6" s="11">
-        <v>14</v>
-      </c>
-      <c r="L6" s="10">
-        <v>8.7500000000000008E-3</v>
-      </c>
-      <c r="M6" s="8">
-        <v>1461</v>
-      </c>
-      <c r="N6" s="16">
-        <v>0.91312499999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>82</v>
-      </c>
-      <c r="D7" s="14">
-        <v>5.1249999999999997E-2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>17</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1.0625000000000001E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12">
-        <v>6.875E-3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6</v>
-      </c>
-      <c r="J7" s="9">
-        <v>3.7499999999999999E-3</v>
-      </c>
-      <c r="K7" s="11">
-        <v>10</v>
-      </c>
-      <c r="L7" s="10">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="M7" s="8">
-        <v>1474</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0.92125000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>58</v>
-      </c>
-      <c r="D8" s="14">
-        <v>3.6249999999999998E-2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>14</v>
-      </c>
-      <c r="F8" s="13">
-        <v>8.7500000000000008E-3</v>
-      </c>
-      <c r="G8" s="6">
-        <v>6</v>
-      </c>
-      <c r="H8" s="12">
-        <v>3.7499999999999999E-3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>14</v>
-      </c>
-      <c r="J8" s="9">
-        <v>8.7500000000000008E-3</v>
-      </c>
-      <c r="K8" s="11">
-        <v>12</v>
-      </c>
-      <c r="L8" s="10">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="M8" s="8">
-        <v>1496</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0.93500000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>36</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="E9" s="5">
-        <v>11</v>
-      </c>
-      <c r="F9" s="13">
-        <v>6.875E-3</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12">
-        <v>6.2500000000000001E-4</v>
-      </c>
-      <c r="I9" s="7">
-        <v>5</v>
-      </c>
-      <c r="J9" s="9">
-        <v>3.1250000000000002E-3</v>
-      </c>
-      <c r="K9" s="11">
-        <v>7</v>
-      </c>
-      <c r="L9" s="10">
-        <v>4.3750000000000004E-3</v>
-      </c>
-      <c r="M9" s="8">
-        <v>1540</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0.96250000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
-        <v>22</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1.375E-2</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4</v>
-      </c>
-      <c r="F10" s="13">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G10" s="6">
-        <v>3</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1.8749999999999999E-3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6</v>
-      </c>
-      <c r="J10" s="9">
-        <v>3.7499999999999999E-3</v>
-      </c>
-      <c r="K10" s="11">
-        <v>5</v>
-      </c>
-      <c r="L10" s="10">
-        <v>3.1250000000000002E-3</v>
-      </c>
-      <c r="M10" s="8">
-        <v>1560</v>
-      </c>
-      <c r="N10" s="16">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="19">
-        <v>12</v>
-      </c>
-      <c r="D11" s="20">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
-      <c r="F11" s="22">
-        <v>6.2500000000000001E-4</v>
-      </c>
-      <c r="G11" s="23">
-        <v>3</v>
-      </c>
-      <c r="H11" s="24">
-        <v>1.8749999999999999E-3</v>
-      </c>
-      <c r="I11" s="25">
-        <v>2</v>
-      </c>
-      <c r="J11" s="26">
-        <v>1.25E-3</v>
-      </c>
-      <c r="K11" s="27">
-        <v>4</v>
-      </c>
-      <c r="L11" s="28">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="M11" s="29">
-        <v>1578</v>
-      </c>
-      <c r="N11" s="30">
-        <v>0.98624999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
